--- a/16-dars/topshiriq.xlsx
+++ b/16-dars/topshiriq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Loyihalar\Office-darsliklari\16-dars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\OneDrive\Desktop\Office-darsliklari\16-dars\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -135,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -263,26 +263,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,9 +300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,7 +1006,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1070,10 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1100,7 +1085,10 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1112,7 +1100,10 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1124,7 +1115,10 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1136,7 +1130,10 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1148,7 +1145,10 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1160,7 +1160,10 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1172,7 +1175,10 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1184,7 +1190,10 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1196,7 +1205,10 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1208,7 +1220,10 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1220,7 +1235,10 @@
       <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1232,7 +1250,10 @@
       <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
@@ -1244,7 +1265,10 @@
       <c r="C17" s="13">
         <v>8</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/16-dars/topshiriq.xlsx
+++ b/16-dars/topshiriq.xlsx
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,10 +1070,7 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1085,10 +1082,7 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1100,10 +1094,7 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1115,10 +1106,7 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1130,10 +1118,7 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1145,10 +1130,7 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1160,10 +1142,7 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1175,10 +1154,7 @@
       <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1190,10 +1166,7 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1205,10 +1178,7 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1220,10 +1190,7 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1235,10 +1202,7 @@
       <c r="C15" s="4">
         <v>4</v>
       </c>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1250,10 +1214,7 @@
       <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="9">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
@@ -1265,10 +1226,7 @@
       <c r="C17" s="13">
         <v>8</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
+      <c r="D17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
